--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nextJs\pcmc-inmers-shadcn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE00874-F2B6-46CF-8555-D79EC5431165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED5AA178-C8BD-4AD3-A9FF-9D797A4682D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Form Submission" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -335,11 +334,6 @@
 After the incident, the staff became aware of the error and immediately stopped further medication administration to other patients, reviewing all prescription records.</t>
   </si>
   <si>
-    <t>Before: The patient was experiencing mild symptoms of bacterial infection, including a sore throat and mild fever.
-During: After receiving the incorrect medication (Ibuprofen), the patient reported dizziness and stomach upset.
-After: The patient's bacterial infection persisted, requiring additional medical intervention.</t>
-  </si>
-  <si>
     <t>The patient was prescribed Lisinopril 10 mg, to be taken once daily in the morning to manage high blood pressure.</t>
   </si>
   <si>
@@ -369,11 +363,14 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>Before: The patient was experiencing mild symptoms of bacterial infection, including a sore throat and mild fever.During: After receiving the incorrect medication (Ibuprofen), the patient reported dizziness and stomach upset.After: The patient's bacterial infection persisted, requiring additional medical intervention.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,11 +795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F40204-6F5D-47B1-A237-2E97929BFC15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -860,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -878,25 +875,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
